--- a/data/output/FV2404_FV2310/UTILMD/55177.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55177.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="321">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="321">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1128,6 +1128,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U153" totalsRowShown="0">
+  <autoFilter ref="A1:U153"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,7 +1447,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8771,5 +8804,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55177.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55177.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4248" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4232" uniqueCount="470">
   <si>
     <t>#</t>
   </si>
@@ -7821,9 +7821,7 @@
         <v>204</v>
       </c>
       <c r="K113" s="2"/>
-      <c r="L113" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="L113" s="7"/>
       <c r="M113" s="2" t="s">
         <v>42</v>
       </c>
@@ -7877,9 +7875,7 @@
         <v>204</v>
       </c>
       <c r="K114" s="2"/>
-      <c r="L114" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="L114" s="7"/>
       <c r="M114" s="2" t="s">
         <v>42</v>
       </c>
@@ -7933,9 +7929,7 @@
         <v>204</v>
       </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="L115" s="7"/>
       <c r="M115" s="2" t="s">
         <v>42</v>
       </c>
@@ -8375,9 +8369,7 @@
         <v>204</v>
       </c>
       <c r="K123" s="2"/>
-      <c r="L123" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="L123" s="7"/>
       <c r="M123" s="2" t="s">
         <v>44</v>
       </c>
@@ -8628,46 +8620,44 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="L128" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="M128" s="2" t="s">
+      <c r="L128" s="7"/>
+      <c r="M128" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="N128" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2" t="s">
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V128" s="2" t="s">
+      <c r="V128" s="5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -9108,46 +9098,44 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2" t="s">
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="L137" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="M137" s="2" t="s">
+      <c r="L137" s="7"/>
+      <c r="M137" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="N137" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-      <c r="U137" s="2" t="s">
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="V137" s="2" t="s">
+      <c r="V137" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9588,44 +9576,42 @@
       </c>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2" t="s">
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="K146" s="2"/>
-      <c r="L146" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="M146" s="2" t="s">
+      <c r="K146" s="5"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N146" s="2" t="s">
+      <c r="N146" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2" t="s">
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="V146" s="2"/>
+      <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="2" t="s">
@@ -9819,9 +9805,7 @@
       <c r="K150" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L150" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="L150" s="7"/>
       <c r="M150" s="2" t="s">
         <v>52</v>
       </c>
